--- a/data/trans_bre/P21_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.519900807288974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.316215602114365</v>
+        <v>8.31621560211436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2011394521394725</v>
@@ -649,7 +649,7 @@
         <v>0.06814612494292123</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4604189157394457</v>
+        <v>0.4604189157394454</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.178206640999883</v>
+        <v>-1.521605295000172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1481052542027028</v>
+        <v>0.5476562433375709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.510105523640686</v>
+        <v>-4.278754572146595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.32636521258029</v>
+        <v>-0.8594844691912185</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06568644886112214</v>
+        <v>-0.07231657837634402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.004912147950570989</v>
+        <v>0.02252682984782208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.178914305499068</v>
+        <v>-0.1756847945063288</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0224391764509618</v>
+        <v>-0.0355049969522022</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.07598871131938</v>
+        <v>9.455644702038098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.48939421034834</v>
+        <v>12.05262179851341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.89074506911628</v>
+        <v>7.486408316790236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.34212886181112</v>
+        <v>15.97451476287638</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5807128093323403</v>
+        <v>0.5513289828879969</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.530689398158846</v>
+        <v>0.5716385381021558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4034370605804635</v>
+        <v>0.3979690181903234</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.299614554564483</v>
+        <v>1.172937912956837</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.52961033827645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.610017266687056</v>
+        <v>5.610017266687059</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9560430842392103</v>
@@ -749,7 +749,7 @@
         <v>0.5186871244425714</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2744940989238221</v>
+        <v>0.2744940989238223</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.0715081109075</v>
+        <v>9.853420169083106</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.729475373694784</v>
+        <v>6.065758746077571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.699735588030115</v>
+        <v>3.714419970557426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.114023829966707</v>
+        <v>-1.143540419431362</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6061969123112723</v>
+        <v>0.5886581596024661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2145586618396886</v>
+        <v>0.2240079384006106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1881921380296868</v>
+        <v>0.1893025021506237</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03233747940772872</v>
+        <v>-0.04818981410461926</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.5004596827912</v>
+        <v>18.97812167473744</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.40945463383321</v>
+        <v>16.2845044116787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.41038229604594</v>
+        <v>13.75291088732211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.04440187817713</v>
+        <v>11.84664089885468</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.513890485581251</v>
+        <v>1.442497777707095</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7617329776797243</v>
+        <v>0.7544970017163806</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9379694719322197</v>
+        <v>0.9390113939023428</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7564012489436636</v>
+        <v>0.7285495599735147</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.405817440353153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.613190384215112</v>
+        <v>3.613190384215115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4149000945186241</v>
@@ -849,7 +849,7 @@
         <v>0.3353171768027769</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1744148943359493</v>
+        <v>0.1744148943359494</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.43208855284605</v>
+        <v>1.439375480523461</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.189419193351198</v>
+        <v>1.051831642603136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6102644539844349</v>
+        <v>1.300229686421448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.499320462136618</v>
+        <v>-0.9648471613644349</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08318506203908102</v>
+        <v>0.08593730353483958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04350954925162485</v>
+        <v>0.05204477989069921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03368601836788435</v>
+        <v>0.06667670884034102</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05849067566342819</v>
+        <v>-0.04012476139215816</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.889796618314071</v>
+        <v>9.654105376753941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.54150314755156</v>
+        <v>10.24866300634396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.704891855335941</v>
+        <v>9.95248675503429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.563055225176378</v>
+        <v>7.955423353892183</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8018045119668488</v>
+        <v>0.8175061525347901</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6109667881086094</v>
+        <v>0.6286493659996456</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.711587853596493</v>
+        <v>0.6960611919138996</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4076792834130927</v>
+        <v>0.4367480517238168</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.806788288654389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8049203381878089</v>
+        <v>-0.8049203381878117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3069545907742753</v>
@@ -949,7 +949,7 @@
         <v>0.268612710174764</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.03245245525880801</v>
+        <v>-0.03245245525880812</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2574415449144654</v>
+        <v>0.2085390920207139</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4001463984794793</v>
+        <v>0.3202145742651182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2161318998450819</v>
+        <v>-0.9274342619278965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.987703843291482</v>
+        <v>-5.068759689203848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01637977814031105</v>
+        <v>-0.009334672792041299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02809678190119805</v>
+        <v>0.01667253725237761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01685147975550464</v>
+        <v>-0.05886366377347093</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1808273416255191</v>
+        <v>-0.1863144319549246</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.396434223948942</v>
+        <v>9.177290941258507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.481987778065507</v>
+        <v>9.84351380315989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.011651528927397</v>
+        <v>8.03027443368862</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.48358557995631</v>
+        <v>3.237396089285693</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7094443078769553</v>
+        <v>0.698978444901017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6559075449320751</v>
+        <v>0.7216770324387503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6351500533722246</v>
+        <v>0.661374944706282</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.156132315569496</v>
+        <v>0.1429392702424112</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.783398997014017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.629475993473305</v>
+        <v>3.629475993473316</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3110704554876468</v>
@@ -1049,7 +1049,7 @@
         <v>0.1807708300094177</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1769919164065287</v>
+        <v>0.1769919164065292</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1253441048190232</v>
+        <v>-0.2609054033083752</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4892586205912817</v>
+        <v>-0.2449769481331088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.696263178501127</v>
+        <v>-2.091659670393712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6660566504761403</v>
+        <v>-0.5654571620471086</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02288019414109489</v>
+        <v>-0.01397323838472442</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.004634718380515532</v>
+        <v>-0.007250998886757262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1158299711245899</v>
+        <v>-0.1184824365232459</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.03190792721257484</v>
+        <v>-0.02562820048419657</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.28646025928772</v>
+        <v>10.35871922189392</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.02263534499561</v>
+        <v>10.9234874733817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.819024162701438</v>
+        <v>8.520509252519961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.042333796222291</v>
+        <v>7.662086826654828</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7451459967564876</v>
+        <v>0.7368436371342867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7321515915882532</v>
+        <v>0.7415857687238701</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6215146144400392</v>
+        <v>0.6483252038171515</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4342148017603183</v>
+        <v>0.4273646878103107</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.237339368559869</v>
+        <v>-0.8439509117799738</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3742998800822196</v>
+        <v>0.7988093027329066</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.010235663262117</v>
+        <v>-2.00573380786344</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.27543618017376</v>
+        <v>1.157527144164646</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.00937538883042136</v>
+        <v>-0.02450176869062978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.005018845140315011</v>
+        <v>0.04849553639383414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1043885770593207</v>
+        <v>-0.1055032323535096</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05462715060549048</v>
+        <v>0.05712305985556285</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.52092674955007</v>
+        <v>13.09785772876268</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.22602434520938</v>
+        <v>13.97124818065644</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.6685076535903</v>
+        <v>9.445731003281175</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.0799117721958</v>
+        <v>9.694994406359912</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7863759891022084</v>
+        <v>0.7484216828022929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9666522839379716</v>
+        <v>0.9451187216946033</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6699606629911926</v>
+        <v>0.6635210009797133</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6533398948016936</v>
+        <v>0.646377609866764</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.154920514188992</v>
+        <v>-3.235387797977381</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.732839966605971</v>
+        <v>-2.032765973546514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.03794782204045991</v>
+        <v>0.184631609012982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.977575836670567</v>
+        <v>2.820438450195256</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1013301788739404</v>
+        <v>-0.1011594697994198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.07625868585566513</v>
+        <v>-0.05947043283199881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.003022348505495957</v>
+        <v>0.01157627980261025</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1204413157127687</v>
+        <v>0.1220599798369917</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.46806795549147</v>
+        <v>12.14326945641119</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.22548740196646</v>
+        <v>13.76290609224898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.61795769780793</v>
+        <v>13.10474707762571</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.91409389359796</v>
+        <v>13.05283056270429</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5742314790405373</v>
+        <v>0.5448980102795152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5117473283701468</v>
+        <v>0.5274750437610704</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8558767035708821</v>
+        <v>0.9300885066827513</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7421020799236753</v>
+        <v>0.7592378372614926</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.2898735375701104</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2073988374656988</v>
+        <v>0.2073988374656987</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.372991071365798</v>
+        <v>5.481597295093241</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.926132980992717</v>
+        <v>4.83779798931056</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.996274464347328</v>
+        <v>3.012852262421083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.365160293228151</v>
+        <v>2.340328247679401</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2948741151093336</v>
+        <v>0.30344729908968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2287241554289204</v>
+        <v>0.2232146100363284</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1702526050563183</v>
+        <v>0.1708204901842856</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1065242444356499</v>
+        <v>0.1055637993146318</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.148041403699288</v>
+        <v>9.23258432347127</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.091182350832998</v>
+        <v>8.915322906518227</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.653943333833815</v>
+        <v>6.638861201869105</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.353448208140717</v>
+        <v>6.282910837988847</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5688242912059881</v>
+        <v>0.5751052650040417</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4706628827548401</v>
+        <v>0.4617555816085313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4286262466921743</v>
+        <v>0.4199953813960297</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3202984170033497</v>
+        <v>0.3163159820001836</v>
       </c>
     </row>
     <row r="28">
